--- a/tools/example_questionnaire.xlsx
+++ b/tools/example_questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21719A0F-5FBF-4F99-9A4E-7C1869927931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB45DCA9-AAFF-4C78-ABA9-DD5A254759DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="907" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -2094,7 +2094,1012 @@
     <t>IMPORTANT NOTICE</t>
   </si>
   <si>
-    <t>This example questionnaire provides a better understanding of the structure of a CISO Assistant questionnaire, with its advanced feature.
+    <t>urn:intuitem:risk:library:my-questionnaire_example.1</t>
+  </si>
+  <si>
+    <t>My-Questionnaire_Example.1</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:req_node:my-questionnaire_example.1</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:framework:my-questionnaire_example.1</t>
+  </si>
+  <si>
+    <t>Exemple de Questionnaire</t>
+  </si>
+  <si>
+    <t>© 2025 Example Organization</t>
+  </si>
+  <si>
+    <t>This is an example questionnaire.
+It presents examples of standard questions and dynamic questions.
+It is designed for illustrative purposes.</t>
+  </si>
+  <si>
+    <t>Ceci est un exemple de questionnaire.
+Il présente des exemples de questions standard et de questions dynamiques.
+Il est conçu à des fins illustratives.</t>
+  </si>
+  <si>
+    <t>Main Group</t>
+  </si>
+  <si>
+    <t>Main Implementation Group</t>
+  </si>
+  <si>
+    <t>Groupe Principal</t>
+  </si>
+  <si>
+    <t>Groupe d'Implémentation Principal</t>
+  </si>
+  <si>
+    <t>FALSE
+TRUE
+/</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Advanced 3</t>
+  </si>
+  <si>
+    <t>Advanced 4</t>
+  </si>
+  <si>
+    <t>Advanced 5</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Advanced++ 1</t>
+  </si>
+  <si>
+    <t>Advanced++</t>
+  </si>
+  <si>
+    <t>Advanced++ 2</t>
+  </si>
+  <si>
+    <t>Advanced++ 3</t>
+  </si>
+  <si>
+    <t>Advanced++ 4</t>
+  </si>
+  <si>
+    <t>Advanced++ 5</t>
+  </si>
+  <si>
+    <t>Exigences fondamentales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ce chapitre regroupe les exigences de base applicables à toutes les organisations.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ces exigences constituent le socle minimal de conformité.
+</t>
+  </si>
+  <si>
+    <t>Governance 3</t>
+  </si>
+  <si>
+    <t>Governance 4</t>
+  </si>
+  <si>
+    <t>Governance 5</t>
+  </si>
+  <si>
+    <t>Politique d'accès et gouvernance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'entreprise met en œuvre une politique de contrôle d'accès et de gouvernance adaptée à ses besoins.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une politique d'accès bien définie permet d'assurer la protection des systèmes et données sensibles.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copie de la politique de gestion des accès, description des rôles et responsabilités.
+</t>
+  </si>
+  <si>
+    <t>Sensibilisation à la cybersécurité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'organisation sensibilise ses employés aux bonnes pratiques de cybersécurité.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La formation du personnel est un facteur clé de réussite dans la protection de l'information.
+</t>
+  </si>
+  <si>
+    <t>Exigences avancées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ce chapitre regroupe les exigences destinées aux organisations plus matures.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ces exigences visent à renforcer le niveau de sécurité au-delà du socle fondamental.
+</t>
+  </si>
+  <si>
+    <t>Supervision et journalisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'organisation met en place une supervision continue et une journalisation centralisée des événements de sécurité.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette exigence s'applique principalement aux organisations plus matures.
+</t>
+  </si>
+  <si>
+    <t>Advanced v2</t>
+  </si>
+  <si>
+    <t>Advanced v2 - 1</t>
+  </si>
+  <si>
+    <t>Advanced v2 - 2</t>
+  </si>
+  <si>
+    <t>Advanced v2 - 3</t>
+  </si>
+  <si>
+    <t>Advanced v2 - 4</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Advanced v2 - Special</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>advancedv2</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Protection des données et sauvegardes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'organisation met en place des mécanismes de sauvegarde et de restauration des données critiques.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les sauvegardes régulières permettent de garantir la résilience de l'organisation face aux incidents.
+</t>
+  </si>
+  <si>
+    <t>FUN</t>
+  </si>
+  <si>
+    <t>FUN.GOV</t>
+  </si>
+  <si>
+    <t>FUN.GOV.1</t>
+  </si>
+  <si>
+    <t>FUN.GOV.2</t>
+  </si>
+  <si>
+    <t>FUN.GOV.3</t>
+  </si>
+  <si>
+    <t>FUN.GOV.4</t>
+  </si>
+  <si>
+    <t>FUN.GOV.5</t>
+  </si>
+  <si>
+    <t>ADV</t>
+  </si>
+  <si>
+    <t>ADV.1</t>
+  </si>
+  <si>
+    <t>ADV.2</t>
+  </si>
+  <si>
+    <t>ADV.3</t>
+  </si>
+  <si>
+    <t>ADV.4</t>
+  </si>
+  <si>
+    <t>ADV.5</t>
+  </si>
+  <si>
+    <t>3.spe</t>
+  </si>
+  <si>
+    <t>Access Policy and Governance</t>
+  </si>
+  <si>
+    <t>Cybersecurity awareness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The organization raises awareness of cybersecurity best practices among its employees.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff training is a key success factor in protecting information.
+</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Monitoring and logging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The organization implements continuous monitoring and centralized logging of security events.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This requirement applies mainly to more mature organizations.
+</t>
+  </si>
+  <si>
+    <t>Data Protection &amp; Backups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The organization implements mechanisms for backing up and restoring critical data.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular backups help ensure the organization's resilience to incidents.
+</t>
+  </si>
+  <si>
+    <t>Fundamentals Requirements</t>
+  </si>
+  <si>
+    <t>Governance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This chapter brings together the requirements for more mature organizations.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These requirements are intended to strengthen the level of security beyond the fundamental foundation.
+</t>
+  </si>
+  <si>
+    <t>Advanced Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This chapter contains the basic requirements applicable to all organizations.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These requirements constitute the minimum basis of compliance.
+</t>
+  </si>
+  <si>
+    <t>My Governance Note 1</t>
+  </si>
+  <si>
+    <t>My Governance Note 2</t>
+  </si>
+  <si>
+    <t>Note 6</t>
+  </si>
+  <si>
+    <t>Note 7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Note 8</t>
+  </si>
+  <si>
+    <t>Note 9</t>
+  </si>
+  <si>
+    <t>Note 10</t>
+  </si>
+  <si>
+    <t>My Advanced Note 1</t>
+  </si>
+  <si>
+    <t>My Advanced Note 2</t>
+  </si>
+  <si>
+    <t>My Advanced v2 Note 1</t>
+  </si>
+  <si>
+    <t>My Advanced v2 Note 2</t>
+  </si>
+  <si>
+    <t>My Advanced++ Note 2</t>
+  </si>
+  <si>
+    <t>My Advanced++ Note 1</t>
+  </si>
+  <si>
+    <t>My Simple Note 1</t>
+  </si>
+  <si>
+    <t>My Simple Note 2</t>
+  </si>
+  <si>
+    <t>Simple Questions</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Simple Question 1</t>
+  </si>
+  <si>
+    <t>Simple Question 2</t>
+  </si>
+  <si>
+    <t>Simple Question 3</t>
+  </si>
+  <si>
+    <t>Simplest question of the questionnaire</t>
+  </si>
+  <si>
+    <t>Are you okay?</t>
+  </si>
+  <si>
+    <t>Secret Note</t>
+  </si>
+  <si>
+    <t>Disposez-vous d'une politique de contrôle d'accès formalisée ?
+La politique est-elle revue annuellement ?
+Quels mécanismes de contrôle d'accès sont en place ?</t>
+  </si>
+  <si>
+    <t>The company implements an access control and governance policy adapted to its needs.</t>
+  </si>
+  <si>
+    <t>A well-defined access policy ensures the protection of sensitive systems and data.</t>
+  </si>
+  <si>
+    <t>Copy of the access management policy, description of roles and responsibilities.</t>
+  </si>
+  <si>
+    <t>Do you have a formalized access control policy?
+Is the policy reviewed annually?
+What access control mechanisms are in place?</t>
+  </si>
+  <si>
+    <t>questions[fr]</t>
+  </si>
+  <si>
+    <t>Les employés reçoivent-ils une formation cybersécurité ?</t>
+  </si>
+  <si>
+    <t>Do employees receive cybersecurity training?</t>
+  </si>
+  <si>
+    <t>Quels types de supervision sont en place ?</t>
+  </si>
+  <si>
+    <t>Des sauvegardes régulières sont-elles effectuées ?</t>
+  </si>
+  <si>
+    <t>What types of supervision are in place?</t>
+  </si>
+  <si>
+    <t>Are regular backups performed?</t>
+  </si>
+  <si>
+    <t>Avancé 3</t>
+  </si>
+  <si>
+    <t>Avancé 5</t>
+  </si>
+  <si>
+    <t>Avancé 4</t>
+  </si>
+  <si>
+    <t>Avancé v2</t>
+  </si>
+  <si>
+    <t>Avancé v2 - 1</t>
+  </si>
+  <si>
+    <t>Avancé v2 - 2</t>
+  </si>
+  <si>
+    <t>Avancé v2 - 3</t>
+  </si>
+  <si>
+    <t>Avancé v2 - 4</t>
+  </si>
+  <si>
+    <t>Avancé v2 - Spécial</t>
+  </si>
+  <si>
+    <t>Avancé++</t>
+  </si>
+  <si>
+    <t>Avancé++ 1</t>
+  </si>
+  <si>
+    <t>Avancé++ 2</t>
+  </si>
+  <si>
+    <t>Avancé++ 3</t>
+  </si>
+  <si>
+    <t>Avancé++ 4</t>
+  </si>
+  <si>
+    <t>Avancé++ 5</t>
+  </si>
+  <si>
+    <t>Questions Simples</t>
+  </si>
+  <si>
+    <t>Question Simple 1</t>
+  </si>
+  <si>
+    <t>Question Simple 2</t>
+  </si>
+  <si>
+    <t>Question Simple 3</t>
+  </si>
+  <si>
+    <t>Gouvernance</t>
+  </si>
+  <si>
+    <t>Gouvernance 4</t>
+  </si>
+  <si>
+    <t>Gouvernance 5</t>
+  </si>
+  <si>
+    <t>Gouvernance 3</t>
+  </si>
+  <si>
+    <t>Note Secrète</t>
+  </si>
+  <si>
+    <t>Ma Note de Gouvernance 2</t>
+  </si>
+  <si>
+    <t>Ma Note de Gouvernance 1</t>
+  </si>
+  <si>
+    <t>Ma Note Avancée 1</t>
+  </si>
+  <si>
+    <t>Ma Note Avancée 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ma Note Avancée v2 1 </t>
+  </si>
+  <si>
+    <t>Ma Note Avancée v2 2</t>
+  </si>
+  <si>
+    <t>Ma Note Avancée++ 1</t>
+  </si>
+  <si>
+    <t>Ma Note Avancée++ 2</t>
+  </si>
+  <si>
+    <t>Ma Note Simple 1</t>
+  </si>
+  <si>
+    <t>Ma Note Simple 2</t>
+  </si>
+  <si>
+    <t>Yes, documented and applied.
+Yes, but not formalized.
+No, no specific policy.</t>
+  </si>
+  <si>
+    <t>TRUE
+TRUE
+FALSE</t>
+  </si>
+  <si>
+    <t>20
+10
+0</t>
+  </si>
+  <si>
+    <t>#28a745
+#ffc107
+#dc3545</t>
+  </si>
+  <si>
+    <t>Indicates that the access policy is documented and implemented.
+/
+/</t>
+  </si>
+  <si>
+    <t>Yes, an annual review is conducted.
+No, the policy is not reviewed regularly.</t>
+  </si>
+  <si>
+    <t>10
+0</t>
+  </si>
+  <si>
+    <t>TRUE
+FALSE</t>
+  </si>
+  <si>
+    <t>#28a745
+#dc3545</t>
+  </si>
+  <si>
+    <t>5
+5
+0</t>
+  </si>
+  <si>
+    <t>Multi-factor authentication (MFA)
+Role-based access control (RBAC)
+No specific measures</t>
+  </si>
+  <si>
+    <t>Significantly improves access security.
+/
+/</t>
+  </si>
+  <si>
+    <t>#17a2b8
+#007bff
+#dc3545</t>
+  </si>
+  <si>
+    <t>Q1_FUN.GOV1</t>
+  </si>
+  <si>
+    <t>Q2_FUN.GOV1</t>
+  </si>
+  <si>
+    <t>Q3_FUN.GOV1</t>
+  </si>
+  <si>
+    <t>Q1_FUN.GOV1
+Q2_FUN.GOV1
+Q3_FUN.GOV1</t>
+  </si>
+  <si>
+    <t>/
+1:1,2
+1:1</t>
+  </si>
+  <si>
+    <t>/
+any
+any</t>
+  </si>
+  <si>
+    <t>advanced
+/
+/</t>
+  </si>
+  <si>
+    <t>Q_ADV1</t>
+  </si>
+  <si>
+    <t>Q_ADV2</t>
+  </si>
+  <si>
+    <t>Yes, all employees receive regular training.
+Only certain employees.
+No training scheduled.</t>
+  </si>
+  <si>
+    <t>#007bff
+#ffc107
+#dc3545</t>
+  </si>
+  <si>
+    <t>10
+5
+0</t>
+  </si>
+  <si>
+    <t>SIEM (Security Information and Event Management)
+Occasional manual monitoring
+No supervision in place</t>
+  </si>
+  <si>
+    <t>Q_ADV3</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>I will never appear because no question allows me to appear with an implementation group. It wouldn't be possible anyway since I don't have any implementation groups :(</t>
+  </si>
+  <si>
+    <t>Je n'apparaîtrai jamais car aucune question ne me permet d'apparaître par avec un groupe d'implémentation. Ce ne serait de toute façon pas possible puisque je n'ai pas de groupes d'implémentation :(</t>
+  </si>
+  <si>
+    <t>Question la plus simple du questionnaire</t>
+  </si>
+  <si>
+    <t>note_ADV</t>
+  </si>
+  <si>
+    <t>note_ADV2</t>
+  </si>
+  <si>
+    <t>note_ADVPP</t>
+  </si>
+  <si>
+    <t>Note Advanced</t>
+  </si>
+  <si>
+    <t>Note Advanced v2</t>
+  </si>
+  <si>
+    <t>Note Advanced++</t>
+  </si>
+  <si>
+    <t>Avancé</t>
+  </si>
+  <si>
+    <t>Note Avancée</t>
+  </si>
+  <si>
+    <t>Note Avancée v2</t>
+  </si>
+  <si>
+    <t>Note Avancée++</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Spécial</t>
+  </si>
+  <si>
+    <t>special2</t>
+  </si>
+  <si>
+    <t>Special 2</t>
+  </si>
+  <si>
+    <t>Spécial 2</t>
+  </si>
+  <si>
+    <t>special, special2</t>
+  </si>
+  <si>
+    <t>Show Simple Note 1?</t>
+  </si>
+  <si>
+    <t>Show Simple Note 2?</t>
+  </si>
+  <si>
+    <t>SQ1_YNNA</t>
+  </si>
+  <si>
+    <t>SQ2_YNNA</t>
+  </si>
+  <si>
+    <t>note_SMP1</t>
+  </si>
+  <si>
+    <t>note_SMP2</t>
+  </si>
+  <si>
+    <t>Note Simple 1</t>
+  </si>
+  <si>
+    <t>Note Simple 2</t>
+  </si>
+  <si>
+    <t>No
+Yes
+N/A</t>
+  </si>
+  <si>
+    <t>/
+note_SMP1
+/</t>
+  </si>
+  <si>
+    <t>note_SMP2
+/
+/</t>
+  </si>
+  <si>
+    <t>#ffc107</t>
+  </si>
+  <si>
+    <t>#17a2b8
+/
+#dc3545</t>
+  </si>
+  <si>
+    <t>Would you like to see even more advanced questions?</t>
+  </si>
+  <si>
+    <t>Advanced Information 2</t>
+  </si>
+  <si>
+    <t>Show more questions?
+Show Governance Notes1?
+Show Governance Notes2?</t>
+  </si>
+  <si>
+    <t>YNNA
+GOV4.1_YNNA
+GOV4.2_YNNA</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>Goverance Information 5</t>
+  </si>
+  <si>
+    <t>GOV4.1_YNNA</t>
+  </si>
+  <si>
+    <t>GOV4.2_YNNA</t>
+  </si>
+  <si>
+    <t>note_GOV1</t>
+  </si>
+  <si>
+    <t>note_GOV2</t>
+  </si>
+  <si>
+    <t>Note Governance 1</t>
+  </si>
+  <si>
+    <t>Note Governance 2</t>
+  </si>
+  <si>
+    <t>Note Gouvernance 1</t>
+  </si>
+  <si>
+    <t>Note Gouvernance 2</t>
+  </si>
+  <si>
+    <t>note_GOV1
+/
+/</t>
+  </si>
+  <si>
+    <t>note_GOV2
+/
+/</t>
+  </si>
+  <si>
+    <t>I can show the special requirement of this section. Click "Yes"</t>
+  </si>
+  <si>
+    <t>I can also show the special requirement of this section. Click "Yes"</t>
+  </si>
+  <si>
+    <t>Yes
+Yes!
+YES!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced v2 Information 1 </t>
+  </si>
+  <si>
+    <t>Advanced Information 1</t>
+  </si>
+  <si>
+    <t>Advanced v2 Information 2</t>
+  </si>
+  <si>
+    <t>Q_ADV23</t>
+  </si>
+  <si>
+    <t>Q_ADV24</t>
+  </si>
+  <si>
+    <t>#28a745
+#28a745
+#ffc107</t>
+  </si>
+  <si>
+    <t>Q_ADV25</t>
+  </si>
+  <si>
+    <t>No
+Yes</t>
+  </si>
+  <si>
+    <t>/
+advancedpp</t>
+  </si>
+  <si>
+    <t>special, note_ADV2
+/
+/</t>
+  </si>
+  <si>
+    <t>/
+special2, note_ADV2
+/</t>
+  </si>
+  <si>
+    <t>advancedv2, note_ADV</t>
+  </si>
+  <si>
+    <t>Show notes for this section?</t>
+  </si>
+  <si>
+    <t>Q_ADVPP1</t>
+  </si>
+  <si>
+    <t>Yes
+OK!
+Sure thing</t>
+  </si>
+  <si>
+    <t>min_score</t>
+  </si>
+  <si>
+    <t>max_score</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Advanced++ Information 2</t>
+  </si>
+  <si>
+    <t>Advanced++ Information 3</t>
+  </si>
+  <si>
+    <t>Advanced++ Information 4</t>
+  </si>
+  <si>
+    <t>Advanced++ Information 5</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>Simple Question 4</t>
+  </si>
+  <si>
+    <t>Simple Question 5</t>
+  </si>
+  <si>
+    <t>Enter a text</t>
+  </si>
+  <si>
+    <t>Enter a date</t>
+  </si>
+  <si>
+    <t>Vous souhaitez voir des questions encore plus avancées ?</t>
+  </si>
+  <si>
+    <t>Afficher les notes pour cette section ?</t>
+  </si>
+  <si>
+    <t>Vous allez bien?</t>
+  </si>
+  <si>
+    <t>Saisir un texte</t>
+  </si>
+  <si>
+    <t>Entrez une date</t>
+  </si>
+  <si>
+    <t>Je peux montrer l’exigence particulière de cette section. Cliquez sur "Oui"</t>
+  </si>
+  <si>
+    <t>Je peux également montrer l’exigence particulière de cette section. Cliquez sur "Oui"</t>
+  </si>
+  <si>
+    <t>Afficher Note Simple 1 ?</t>
+  </si>
+  <si>
+    <t>Afficher Note Simple 2 ?</t>
+  </si>
+  <si>
+    <t>Afficher plus de questions ?
+Afficher les Notes de Gouvernance1 ?
+Afficher les Notes de Gouvernance2 ?</t>
+  </si>
+  <si>
+    <t>Informations Advancée++ 2</t>
+  </si>
+  <si>
+    <t>Informations Advancée++ 3</t>
+  </si>
+  <si>
+    <t>Informations Advancée++ 4</t>
+  </si>
+  <si>
+    <t>Informations Advancée++ 5</t>
+  </si>
+  <si>
+    <t>Informations Avancées v2 1</t>
+  </si>
+  <si>
+    <t>Informations Avancées v2 2</t>
+  </si>
+  <si>
+    <t>Informations complémentaires 1</t>
+  </si>
+  <si>
+    <t>Informations supplémentaires 2</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Q_FUN.GOV2</t>
+  </si>
+  <si>
+    <t>15
+8
+0</t>
+  </si>
+  <si>
+    <t>Yes, daily backups and tested.
+Yes, but untested.
+No, there's no formalized backup.</t>
+  </si>
+  <si>
+    <t>advancedpp</t>
+  </si>
+  <si>
+    <t>This example questionnaire provides a better understanding of the structure of a CISO Assistant questionnaire, with its advanced features.
 You can convert it with "convert_library_v2.py" and add it to CISO Assistant to see how it looks like.</t>
   </si>
   <si>
@@ -2124,1014 +3129,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> a Framework! We call them questionnaire because of the fact that we use those framework like a classic questionnaire.
-Every elements from "example_framework.xlsx" (fields, columns, sheets, …) can be added in a questionnaire.</t>
+      <t xml:space="preserve"> a Framework! We call them questionnaires because we use these frameworks like traditional questionnaires.
+All elements of "example_framework.xlsx" (fields, columns, sheets, …) can be added to a questionnaire.</t>
     </r>
-  </si>
-  <si>
-    <t>urn:intuitem:risk:library:my-questionnaire_example.1</t>
-  </si>
-  <si>
-    <t>My-Questionnaire_Example.1</t>
-  </si>
-  <si>
-    <t>urn:intuitem:risk:req_node:my-questionnaire_example.1</t>
-  </si>
-  <si>
-    <t>urn:intuitem:risk:framework:my-questionnaire_example.1</t>
-  </si>
-  <si>
-    <t>Exemple de Questionnaire</t>
-  </si>
-  <si>
-    <t>© 2025 Example Organization</t>
-  </si>
-  <si>
-    <t>This is an example questionnaire.
-It presents examples of standard questions and dynamic questions.
-It is designed for illustrative purposes.</t>
-  </si>
-  <si>
-    <t>Ceci est un exemple de questionnaire.
-Il présente des exemples de questions standard et de questions dynamiques.
-Il est conçu à des fins illustratives.</t>
-  </si>
-  <si>
-    <t>Main Group</t>
-  </si>
-  <si>
-    <t>Main Implementation Group</t>
-  </si>
-  <si>
-    <t>Groupe Principal</t>
-  </si>
-  <si>
-    <t>Groupe d'Implémentation Principal</t>
-  </si>
-  <si>
-    <t>FALSE
-TRUE
-/</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>Advanced</t>
-  </si>
-  <si>
-    <t>Advanced 3</t>
-  </si>
-  <si>
-    <t>Advanced 4</t>
-  </si>
-  <si>
-    <t>Advanced 5</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Advanced++ 1</t>
-  </si>
-  <si>
-    <t>Advanced++</t>
-  </si>
-  <si>
-    <t>Advanced++ 2</t>
-  </si>
-  <si>
-    <t>Advanced++ 3</t>
-  </si>
-  <si>
-    <t>Advanced++ 4</t>
-  </si>
-  <si>
-    <t>Advanced++ 5</t>
-  </si>
-  <si>
-    <t>Exigences fondamentales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ce chapitre regroupe les exigences de base applicables à toutes les organisations.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ces exigences constituent le socle minimal de conformité.
-</t>
-  </si>
-  <si>
-    <t>Governance 3</t>
-  </si>
-  <si>
-    <t>Governance 4</t>
-  </si>
-  <si>
-    <t>Governance 5</t>
-  </si>
-  <si>
-    <t>Politique d'accès et gouvernance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'entreprise met en œuvre une politique de contrôle d'accès et de gouvernance adaptée à ses besoins.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Une politique d'accès bien définie permet d'assurer la protection des systèmes et données sensibles.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copie de la politique de gestion des accès, description des rôles et responsabilités.
-</t>
-  </si>
-  <si>
-    <t>Sensibilisation à la cybersécurité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'organisation sensibilise ses employés aux bonnes pratiques de cybersécurité.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La formation du personnel est un facteur clé de réussite dans la protection de l'information.
-</t>
-  </si>
-  <si>
-    <t>Exigences avancées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ce chapitre regroupe les exigences destinées aux organisations plus matures.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ces exigences visent à renforcer le niveau de sécurité au-delà du socle fondamental.
-</t>
-  </si>
-  <si>
-    <t>Supervision et journalisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'organisation met en place une supervision continue et une journalisation centralisée des événements de sécurité.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette exigence s'applique principalement aux organisations plus matures.
-</t>
-  </si>
-  <si>
-    <t>Advanced v2</t>
-  </si>
-  <si>
-    <t>Advanced v2 - 1</t>
-  </si>
-  <si>
-    <t>Advanced v2 - 2</t>
-  </si>
-  <si>
-    <t>Advanced v2 - 3</t>
-  </si>
-  <si>
-    <t>Advanced v2 - 4</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>Advanced v2 - Special</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>advanced</t>
-  </si>
-  <si>
-    <t>advancedv2</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Protection des données et sauvegardes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'organisation met en place des mécanismes de sauvegarde et de restauration des données critiques.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les sauvegardes régulières permettent de garantir la résilience de l'organisation face aux incidents.
-</t>
-  </si>
-  <si>
-    <t>FUN</t>
-  </si>
-  <si>
-    <t>FUN.GOV</t>
-  </si>
-  <si>
-    <t>FUN.GOV.1</t>
-  </si>
-  <si>
-    <t>FUN.GOV.2</t>
-  </si>
-  <si>
-    <t>FUN.GOV.3</t>
-  </si>
-  <si>
-    <t>FUN.GOV.4</t>
-  </si>
-  <si>
-    <t>FUN.GOV.5</t>
-  </si>
-  <si>
-    <t>ADV</t>
-  </si>
-  <si>
-    <t>ADV.1</t>
-  </si>
-  <si>
-    <t>ADV.2</t>
-  </si>
-  <si>
-    <t>ADV.3</t>
-  </si>
-  <si>
-    <t>ADV.4</t>
-  </si>
-  <si>
-    <t>ADV.5</t>
-  </si>
-  <si>
-    <t>3.spe</t>
-  </si>
-  <si>
-    <t>Access Policy and Governance</t>
-  </si>
-  <si>
-    <t>Cybersecurity awareness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The organization raises awareness of cybersecurity best practices among its employees.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staff training is a key success factor in protecting information.
-</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Monitoring and logging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The organization implements continuous monitoring and centralized logging of security events.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This requirement applies mainly to more mature organizations.
-</t>
-  </si>
-  <si>
-    <t>Data Protection &amp; Backups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The organization implements mechanisms for backing up and restoring critical data.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular backups help ensure the organization's resilience to incidents.
-</t>
-  </si>
-  <si>
-    <t>Fundamentals Requirements</t>
-  </si>
-  <si>
-    <t>Governance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This chapter brings together the requirements for more mature organizations.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">These requirements are intended to strengthen the level of security beyond the fundamental foundation.
-</t>
-  </si>
-  <si>
-    <t>Advanced Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This chapter contains the basic requirements applicable to all organizations.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">These requirements constitute the minimum basis of compliance.
-</t>
-  </si>
-  <si>
-    <t>My Governance Note 1</t>
-  </si>
-  <si>
-    <t>My Governance Note 2</t>
-  </si>
-  <si>
-    <t>Note 6</t>
-  </si>
-  <si>
-    <t>Note 7</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Note 8</t>
-  </si>
-  <si>
-    <t>Note 9</t>
-  </si>
-  <si>
-    <t>Note 10</t>
-  </si>
-  <si>
-    <t>My Advanced Note 1</t>
-  </si>
-  <si>
-    <t>My Advanced Note 2</t>
-  </si>
-  <si>
-    <t>My Advanced v2 Note 1</t>
-  </si>
-  <si>
-    <t>My Advanced v2 Note 2</t>
-  </si>
-  <si>
-    <t>My Advanced++ Note 2</t>
-  </si>
-  <si>
-    <t>My Advanced++ Note 1</t>
-  </si>
-  <si>
-    <t>My Simple Note 1</t>
-  </si>
-  <si>
-    <t>My Simple Note 2</t>
-  </si>
-  <si>
-    <t>Simple Questions</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>Simple Question 1</t>
-  </si>
-  <si>
-    <t>Simple Question 2</t>
-  </si>
-  <si>
-    <t>Simple Question 3</t>
-  </si>
-  <si>
-    <t>Simplest question of the questionnaire</t>
-  </si>
-  <si>
-    <t>Are you okay?</t>
-  </si>
-  <si>
-    <t>Secret Note</t>
-  </si>
-  <si>
-    <t>Disposez-vous d'une politique de contrôle d'accès formalisée ?
-La politique est-elle revue annuellement ?
-Quels mécanismes de contrôle d'accès sont en place ?</t>
-  </si>
-  <si>
-    <t>The company implements an access control and governance policy adapted to its needs.</t>
-  </si>
-  <si>
-    <t>A well-defined access policy ensures the protection of sensitive systems and data.</t>
-  </si>
-  <si>
-    <t>Copy of the access management policy, description of roles and responsibilities.</t>
-  </si>
-  <si>
-    <t>Do you have a formalized access control policy?
-Is the policy reviewed annually?
-What access control mechanisms are in place?</t>
-  </si>
-  <si>
-    <t>questions[fr]</t>
-  </si>
-  <si>
-    <t>Les employés reçoivent-ils une formation cybersécurité ?</t>
-  </si>
-  <si>
-    <t>Do employees receive cybersecurity training?</t>
-  </si>
-  <si>
-    <t>Quels types de supervision sont en place ?</t>
-  </si>
-  <si>
-    <t>Des sauvegardes régulières sont-elles effectuées ?</t>
-  </si>
-  <si>
-    <t>What types of supervision are in place?</t>
-  </si>
-  <si>
-    <t>Are regular backups performed?</t>
-  </si>
-  <si>
-    <t>Avancé 3</t>
-  </si>
-  <si>
-    <t>Avancé 5</t>
-  </si>
-  <si>
-    <t>Avancé 4</t>
-  </si>
-  <si>
-    <t>Avancé v2</t>
-  </si>
-  <si>
-    <t>Avancé v2 - 1</t>
-  </si>
-  <si>
-    <t>Avancé v2 - 2</t>
-  </si>
-  <si>
-    <t>Avancé v2 - 3</t>
-  </si>
-  <si>
-    <t>Avancé v2 - 4</t>
-  </si>
-  <si>
-    <t>Avancé v2 - Spécial</t>
-  </si>
-  <si>
-    <t>Avancé++</t>
-  </si>
-  <si>
-    <t>Avancé++ 1</t>
-  </si>
-  <si>
-    <t>Avancé++ 2</t>
-  </si>
-  <si>
-    <t>Avancé++ 3</t>
-  </si>
-  <si>
-    <t>Avancé++ 4</t>
-  </si>
-  <si>
-    <t>Avancé++ 5</t>
-  </si>
-  <si>
-    <t>Questions Simples</t>
-  </si>
-  <si>
-    <t>Question Simple 1</t>
-  </si>
-  <si>
-    <t>Question Simple 2</t>
-  </si>
-  <si>
-    <t>Question Simple 3</t>
-  </si>
-  <si>
-    <t>Gouvernance</t>
-  </si>
-  <si>
-    <t>Gouvernance 4</t>
-  </si>
-  <si>
-    <t>Gouvernance 5</t>
-  </si>
-  <si>
-    <t>Gouvernance 3</t>
-  </si>
-  <si>
-    <t>Note Secrète</t>
-  </si>
-  <si>
-    <t>Ma Note de Gouvernance 2</t>
-  </si>
-  <si>
-    <t>Ma Note de Gouvernance 1</t>
-  </si>
-  <si>
-    <t>Ma Note Avancée 1</t>
-  </si>
-  <si>
-    <t>Ma Note Avancée 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ma Note Avancée v2 1 </t>
-  </si>
-  <si>
-    <t>Ma Note Avancée v2 2</t>
-  </si>
-  <si>
-    <t>Ma Note Avancée++ 1</t>
-  </si>
-  <si>
-    <t>Ma Note Avancée++ 2</t>
-  </si>
-  <si>
-    <t>Ma Note Simple 1</t>
-  </si>
-  <si>
-    <t>Ma Note Simple 2</t>
-  </si>
-  <si>
-    <t>Yes, documented and applied.
-Yes, but not formalized.
-No, no specific policy.</t>
-  </si>
-  <si>
-    <t>TRUE
-TRUE
-FALSE</t>
-  </si>
-  <si>
-    <t>20
-10
-0</t>
-  </si>
-  <si>
-    <t>#28a745
-#ffc107
-#dc3545</t>
-  </si>
-  <si>
-    <t>Indicates that the access policy is documented and implemented.
-/
-/</t>
-  </si>
-  <si>
-    <t>Yes, an annual review is conducted.
-No, the policy is not reviewed regularly.</t>
-  </si>
-  <si>
-    <t>10
-0</t>
-  </si>
-  <si>
-    <t>TRUE
-FALSE</t>
-  </si>
-  <si>
-    <t>#28a745
-#dc3545</t>
-  </si>
-  <si>
-    <t>5
-5
-0</t>
-  </si>
-  <si>
-    <t>Multi-factor authentication (MFA)
-Role-based access control (RBAC)
-No specific measures</t>
-  </si>
-  <si>
-    <t>Significantly improves access security.
-/
-/</t>
-  </si>
-  <si>
-    <t>#17a2b8
-#007bff
-#dc3545</t>
-  </si>
-  <si>
-    <t>Q1_FUN.GOV1</t>
-  </si>
-  <si>
-    <t>Q2_FUN.GOV1</t>
-  </si>
-  <si>
-    <t>Q3_FUN.GOV1</t>
-  </si>
-  <si>
-    <t>Q1_FUN.GOV1
-Q2_FUN.GOV1
-Q3_FUN.GOV1</t>
-  </si>
-  <si>
-    <t>/
-1:1,2
-1:1</t>
-  </si>
-  <si>
-    <t>/
-any
-any</t>
-  </si>
-  <si>
-    <t>advanced
-/
-/</t>
-  </si>
-  <si>
-    <t>Q_ADV1</t>
-  </si>
-  <si>
-    <t>Q_ADV2</t>
-  </si>
-  <si>
-    <t>Yes, all employees receive regular training.
-Only certain employees.
-No training scheduled.</t>
-  </si>
-  <si>
-    <t>#007bff
-#ffc107
-#dc3545</t>
-  </si>
-  <si>
-    <t>10
-5
-0</t>
-  </si>
-  <si>
-    <t>SIEM (Security Information and Event Management)
-Occasional manual monitoring
-No supervision in place</t>
-  </si>
-  <si>
-    <t>Q_ADV3</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>I will never appear because no question allows me to appear with an implementation group. It wouldn't be possible anyway since I don't have any implementation groups :(</t>
-  </si>
-  <si>
-    <t>Je n'apparaîtrai jamais car aucune question ne me permet d'apparaître par avec un groupe d'implémentation. Ce ne serait de toute façon pas possible puisque je n'ai pas de groupes d'implémentation :(</t>
-  </si>
-  <si>
-    <t>Question la plus simple du questionnaire</t>
-  </si>
-  <si>
-    <t>note_ADV</t>
-  </si>
-  <si>
-    <t>note_ADV2</t>
-  </si>
-  <si>
-    <t>note_ADVPP</t>
-  </si>
-  <si>
-    <t>Note Advanced</t>
-  </si>
-  <si>
-    <t>Note Advanced v2</t>
-  </si>
-  <si>
-    <t>Note Advanced++</t>
-  </si>
-  <si>
-    <t>Avancé</t>
-  </si>
-  <si>
-    <t>Note Avancée</t>
-  </si>
-  <si>
-    <t>Note Avancée v2</t>
-  </si>
-  <si>
-    <t>Note Avancée++</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>Spécial</t>
-  </si>
-  <si>
-    <t>special2</t>
-  </si>
-  <si>
-    <t>Special 2</t>
-  </si>
-  <si>
-    <t>Spécial 2</t>
-  </si>
-  <si>
-    <t>special, special2</t>
-  </si>
-  <si>
-    <t>Show Simple Note 1?</t>
-  </si>
-  <si>
-    <t>Show Simple Note 2?</t>
-  </si>
-  <si>
-    <t>SQ1_YNNA</t>
-  </si>
-  <si>
-    <t>SQ2_YNNA</t>
-  </si>
-  <si>
-    <t>note_SMP1</t>
-  </si>
-  <si>
-    <t>note_SMP2</t>
-  </si>
-  <si>
-    <t>Note Simple 1</t>
-  </si>
-  <si>
-    <t>Note Simple 2</t>
-  </si>
-  <si>
-    <t>No
-Yes
-N/A</t>
-  </si>
-  <si>
-    <t>/
-note_SMP1
-/</t>
-  </si>
-  <si>
-    <t>note_SMP2
-/
-/</t>
-  </si>
-  <si>
-    <t>#ffc107</t>
-  </si>
-  <si>
-    <t>#17a2b8
-/
-#dc3545</t>
-  </si>
-  <si>
-    <t>Would you like to see even more advanced questions?</t>
-  </si>
-  <si>
-    <t>Advanced Information 2</t>
-  </si>
-  <si>
-    <t>Show more questions?
-Show Governance Notes1?
-Show Governance Notes2?</t>
-  </si>
-  <si>
-    <t>YNNA
-GOV4.1_YNNA
-GOV4.2_YNNA</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>Goverance Information 5</t>
-  </si>
-  <si>
-    <t>GOV4.1_YNNA</t>
-  </si>
-  <si>
-    <t>GOV4.2_YNNA</t>
-  </si>
-  <si>
-    <t>note_GOV1</t>
-  </si>
-  <si>
-    <t>note_GOV2</t>
-  </si>
-  <si>
-    <t>Note Governance 1</t>
-  </si>
-  <si>
-    <t>Note Governance 2</t>
-  </si>
-  <si>
-    <t>Note Gouvernance 1</t>
-  </si>
-  <si>
-    <t>Note Gouvernance 2</t>
-  </si>
-  <si>
-    <t>note_GOV1
-/
-/</t>
-  </si>
-  <si>
-    <t>note_GOV2
-/
-/</t>
-  </si>
-  <si>
-    <t>I can show the special requirement of this section. Click "Yes"</t>
-  </si>
-  <si>
-    <t>I can also show the special requirement of this section. Click "Yes"</t>
-  </si>
-  <si>
-    <t>Yes
-Yes!
-YES!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced v2 Information 1 </t>
-  </si>
-  <si>
-    <t>Advanced Information 1</t>
-  </si>
-  <si>
-    <t>Advanced v2 Information 2</t>
-  </si>
-  <si>
-    <t>Q_ADV23</t>
-  </si>
-  <si>
-    <t>Q_ADV24</t>
-  </si>
-  <si>
-    <t>#28a745
-#28a745
-#ffc107</t>
-  </si>
-  <si>
-    <t>Q_ADV25</t>
-  </si>
-  <si>
-    <t>No
-Yes</t>
-  </si>
-  <si>
-    <t>/
-advancedpp</t>
-  </si>
-  <si>
-    <t>special, note_ADV2
-/
-/</t>
-  </si>
-  <si>
-    <t>/
-special2, note_ADV2
-/</t>
-  </si>
-  <si>
-    <t>advancedv2, note_ADV</t>
-  </si>
-  <si>
-    <t>Show notes for this section?</t>
-  </si>
-  <si>
-    <t>Q_ADVPP1</t>
-  </si>
-  <si>
-    <t>Yes
-OK!
-Sure thing</t>
-  </si>
-  <si>
-    <t>min_score</t>
-  </si>
-  <si>
-    <t>max_score</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Advanced++ Information 2</t>
-  </si>
-  <si>
-    <t>Advanced++ Information 3</t>
-  </si>
-  <si>
-    <t>Advanced++ Information 4</t>
-  </si>
-  <si>
-    <t>Advanced++ Information 5</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>Simple Question 4</t>
-  </si>
-  <si>
-    <t>Simple Question 5</t>
-  </si>
-  <si>
-    <t>Enter a text</t>
-  </si>
-  <si>
-    <t>Enter a date</t>
-  </si>
-  <si>
-    <t>Vous souhaitez voir des questions encore plus avancées ?</t>
-  </si>
-  <si>
-    <t>Afficher les notes pour cette section ?</t>
-  </si>
-  <si>
-    <t>Vous allez bien?</t>
-  </si>
-  <si>
-    <t>Saisir un texte</t>
-  </si>
-  <si>
-    <t>Entrez une date</t>
-  </si>
-  <si>
-    <t>Je peux montrer l’exigence particulière de cette section. Cliquez sur "Oui"</t>
-  </si>
-  <si>
-    <t>Je peux également montrer l’exigence particulière de cette section. Cliquez sur "Oui"</t>
-  </si>
-  <si>
-    <t>Afficher Note Simple 1 ?</t>
-  </si>
-  <si>
-    <t>Afficher Note Simple 2 ?</t>
-  </si>
-  <si>
-    <t>Afficher plus de questions ?
-Afficher les Notes de Gouvernance1 ?
-Afficher les Notes de Gouvernance2 ?</t>
-  </si>
-  <si>
-    <t>Informations Advancée++ 2</t>
-  </si>
-  <si>
-    <t>Informations Advancée++ 3</t>
-  </si>
-  <si>
-    <t>Informations Advancée++ 4</t>
-  </si>
-  <si>
-    <t>Informations Advancée++ 5</t>
-  </si>
-  <si>
-    <t>Informations Avancées v2 1</t>
-  </si>
-  <si>
-    <t>Informations Avancées v2 2</t>
-  </si>
-  <si>
-    <t>Informations complémentaires 1</t>
-  </si>
-  <si>
-    <t>Informations supplémentaires 2</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>Q_FUN.GOV2</t>
-  </si>
-  <si>
-    <t>15
-8
-0</t>
-  </si>
-  <si>
-    <t>Yes, daily backups and tested.
-Yes, but untested.
-No, there's no formalized backup.</t>
-  </si>
-  <si>
-    <t>advancedpp</t>
   </si>
 </sst>
 </file>
@@ -5057,7 +5057,7 @@
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="2" spans="1:13" ht="42.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="100" t="s">
-        <v>98</v>
+        <v>398</v>
       </c>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="B3" s="103"/>
       <c r="C3" s="104" t="s">
-        <v>99</v>
+        <v>399</v>
       </c>
       <c r="D3" s="104"/>
       <c r="E3" s="104"/>
@@ -5450,7 +5450,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5474,7 +5474,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5490,7 +5490,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5498,7 +5498,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5522,7 +5522,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -5530,7 +5530,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5580,7 +5580,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5588,7 +5588,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5596,7 +5596,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5612,7 +5612,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5633,18 +5633,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="71" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5652,7 +5652,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -5660,7 +5660,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5679,7 +5679,7 @@
   </sheetPr>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -5763,7 +5763,7 @@
         <v>28</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -5772,16 +5772,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
@@ -5792,13 +5792,13 @@
       <c r="M2" s="37"/>
       <c r="N2" s="37"/>
       <c r="O2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q2" t="s">
         <v>129</v>
-      </c>
-      <c r="P2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>131</v>
       </c>
       <c r="R2" s="39"/>
       <c r="S2" s="62"/>
@@ -5809,10 +5809,10 @@
         <v>40</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -5825,7 +5825,7 @@
       <c r="M3" s="37"/>
       <c r="N3" s="37"/>
       <c r="O3" s="37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
@@ -5840,49 +5840,49 @@
         <v>41</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E4" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="J4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="J4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>228</v>
-      </c>
       <c r="L4" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="N4" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="M4" s="60" t="s">
-        <v>287</v>
-      </c>
-      <c r="N4" s="48" t="s">
-        <v>288</v>
-      </c>
       <c r="O4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q4" t="s">
         <v>135</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>136</v>
       </c>
-      <c r="Q4" t="s">
-        <v>137</v>
-      </c>
-      <c r="R4" t="s">
-        <v>138</v>
-      </c>
       <c r="S4" s="60" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -5893,45 +5893,45 @@
         <v>41</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
       <c r="J5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M5" s="37"/>
       <c r="N5" s="37"/>
       <c r="O5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5" t="s">
         <v>139</v>
-      </c>
-      <c r="P5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>141</v>
       </c>
       <c r="R5" s="39"/>
       <c r="S5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5942,10 +5942,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
@@ -5957,28 +5957,28 @@
         <v>40</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K6" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="M6" s="68" t="s">
         <v>332</v>
       </c>
-      <c r="L6" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="M6" s="68" t="s">
-        <v>334</v>
-      </c>
       <c r="N6" s="33" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O6" s="37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="39"/>
       <c r="S6" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -5989,10 +5989,10 @@
         <v>41</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
@@ -6000,14 +6000,14 @@
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K7" s="37"/>
       <c r="L7" s="37"/>
       <c r="M7" s="37"/>
       <c r="N7" s="37"/>
       <c r="O7" s="37" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="37"/>
@@ -6022,27 +6022,27 @@
         <v>41</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
       <c r="J8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
       <c r="O8" s="37" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="str">
         <f>_xlfn.TRANSLATE(Tableau1[[#This Row],[description]],"en","fr")</f>
@@ -6058,16 +6058,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="37"/>
@@ -6078,13 +6078,13 @@
       <c r="M9" s="37"/>
       <c r="N9" s="37"/>
       <c r="O9" t="s">
+        <v>140</v>
+      </c>
+      <c r="P9" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q9" t="s">
         <v>142</v>
-      </c>
-      <c r="P9" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>144</v>
       </c>
       <c r="R9" s="37"/>
       <c r="S9" s="7"/>
@@ -6097,19 +6097,19 @@
         <v>40</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>86</v>
@@ -6118,28 +6118,28 @@
         <v>5</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M10" s="37"/>
       <c r="N10" s="37"/>
       <c r="O10" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q10" t="s">
         <v>145</v>
-      </c>
-      <c r="P10" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>147</v>
       </c>
       <c r="R10" s="39"/>
       <c r="S10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6150,47 +6150,47 @@
         <v>40</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="37" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M11" s="37"/>
       <c r="N11" s="37"/>
       <c r="O11" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q11" t="s">
         <v>163</v>
-      </c>
-      <c r="P11" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>165</v>
       </c>
       <c r="R11" s="39"/>
       <c r="S11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6201,10 +6201,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
@@ -6212,24 +6212,24 @@
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
       <c r="J12" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M12" s="37"/>
       <c r="N12" s="37"/>
       <c r="O12" s="37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="37"/>
       <c r="R12" s="39"/>
       <c r="S12" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6240,35 +6240,35 @@
         <v>40</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
       <c r="O13" s="37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q13" s="37"/>
       <c r="R13" s="39"/>
       <c r="S13" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6279,35 +6279,35 @@
         <v>40</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
       <c r="I14" s="37"/>
       <c r="J14" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
       <c r="N14" s="37"/>
       <c r="O14" s="37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="37"/>
       <c r="R14" s="39"/>
       <c r="S14" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6319,7 +6319,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
@@ -6332,13 +6332,13 @@
       <c r="M15" s="37"/>
       <c r="N15" s="37"/>
       <c r="O15" s="37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="37"/>
       <c r="R15" s="39"/>
       <c r="S15" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6349,13 +6349,13 @@
         <v>40</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -6364,22 +6364,22 @@
       </c>
       <c r="I16" s="37"/>
       <c r="J16" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="37"/>
       <c r="R16" s="39"/>
       <c r="S16" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6390,13 +6390,13 @@
         <v>40</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -6405,22 +6405,22 @@
       </c>
       <c r="I17" s="36"/>
       <c r="J17" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="37" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="37"/>
       <c r="R17" s="37"/>
       <c r="S17" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6431,10 +6431,10 @@
         <v>40</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -6442,24 +6442,24 @@
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="37"/>
       <c r="R18" s="37"/>
       <c r="S18" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6470,10 +6470,10 @@
         <v>40</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
@@ -6481,24 +6481,24 @@
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
       <c r="J19" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M19" s="37"/>
       <c r="N19" s="37"/>
       <c r="O19" s="37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="37"/>
       <c r="R19" s="39"/>
       <c r="S19" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6509,10 +6509,10 @@
         <v>40</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
@@ -6520,24 +6520,24 @@
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="37"/>
       <c r="R20" s="39"/>
       <c r="S20" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6549,7 +6549,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
@@ -6562,13 +6562,13 @@
       <c r="M21" s="37"/>
       <c r="N21" s="37"/>
       <c r="O21" s="37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="37"/>
       <c r="R21" s="39"/>
       <c r="S21" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6579,10 +6579,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
@@ -6594,24 +6594,24 @@
         <v>5</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="37"/>
       <c r="R22" s="39"/>
       <c r="S22" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6622,13 +6622,13 @@
         <v>40</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -6637,22 +6637,22 @@
       </c>
       <c r="I23" s="36"/>
       <c r="J23" s="16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="37"/>
       <c r="R23" s="37"/>
       <c r="S23" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6663,35 +6663,35 @@
         <v>40</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
       <c r="H24" s="36"/>
       <c r="I24" s="36"/>
       <c r="J24" s="16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="37" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q24" s="37"/>
       <c r="R24" s="37"/>
       <c r="S24" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6702,13 +6702,13 @@
         <v>40</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -6717,22 +6717,22 @@
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
       <c r="O25" s="37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q25" s="37"/>
       <c r="R25" s="39"/>
       <c r="S25" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6743,35 +6743,35 @@
         <v>40</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
       <c r="O26" s="37" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="37"/>
       <c r="R26" s="39"/>
       <c r="S26" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6780,10 +6780,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
@@ -6796,13 +6796,13 @@
       <c r="M27" s="23"/>
       <c r="N27" s="23"/>
       <c r="O27" s="37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="37"/>
       <c r="R27" s="39"/>
       <c r="S27" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6813,10 +6813,10 @@
         <v>40</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
@@ -6824,24 +6824,24 @@
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K28" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="L28" s="37" t="s">
         <v>317</v>
-      </c>
-      <c r="L28" s="37" t="s">
-        <v>319</v>
       </c>
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
       <c r="O28" s="37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="37"/>
       <c r="R28" s="39"/>
       <c r="S28" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6852,10 +6852,10 @@
         <v>40</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
@@ -6865,24 +6865,24 @@
       </c>
       <c r="I29" s="36"/>
       <c r="J29" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K29" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="L29" s="37" t="s">
         <v>318</v>
-      </c>
-      <c r="L29" s="37" t="s">
-        <v>320</v>
       </c>
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
       <c r="O29" s="37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="37"/>
       <c r="R29" s="39"/>
       <c r="S29" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6893,23 +6893,23 @@
         <v>40</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="36"/>
       <c r="I30" s="36"/>
       <c r="J30" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L30" s="16" t="s">
         <v>55</v>
@@ -6917,15 +6917,15 @@
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
       <c r="O30" s="37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P30" s="37" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q30" s="37"/>
       <c r="R30" s="39"/>
       <c r="S30" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6936,10 +6936,10 @@
         <v>40</v>
       </c>
       <c r="C31" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="D31" s="37" t="s">
         <v>371</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>373</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
@@ -6947,10 +6947,10 @@
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
       <c r="J31" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L31" s="16" t="s">
         <v>58</v>
@@ -6962,7 +6962,7 @@
       <c r="Q31" s="37"/>
       <c r="R31" s="39"/>
       <c r="S31" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6973,10 +6973,10 @@
         <v>40</v>
       </c>
       <c r="C32" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="D32" s="37" t="s">
         <v>372</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>374</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
@@ -6984,10 +6984,10 @@
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
       <c r="J32" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>60</v>
@@ -6999,7 +6999,7 @@
       <c r="Q32" s="37"/>
       <c r="R32" s="39"/>
       <c r="S32" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7008,10 +7008,10 @@
         <v>4</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
@@ -7024,13 +7024,13 @@
       <c r="M33" s="37"/>
       <c r="N33" s="37"/>
       <c r="O33" s="37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="37"/>
       <c r="R33" s="39"/>
       <c r="S33" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7043,14 +7043,14 @@
         <v>43</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
       <c r="J34" s="37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
@@ -7060,12 +7060,12 @@
         <v>43</v>
       </c>
       <c r="P34" s="37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q34" s="37"/>
       <c r="R34" s="39"/>
       <c r="S34" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7078,14 +7078,14 @@
         <v>44</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
@@ -7095,12 +7095,12 @@
         <v>44</v>
       </c>
       <c r="P35" s="37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q35" s="37"/>
       <c r="R35" s="39"/>
       <c r="S35" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7113,14 +7113,14 @@
         <v>45</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K36" s="37"/>
       <c r="L36" s="37"/>
@@ -7130,12 +7130,12 @@
         <v>45</v>
       </c>
       <c r="P36" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q36" s="37"/>
       <c r="R36" s="39"/>
       <c r="S36" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7148,14 +7148,14 @@
         <v>46</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
       <c r="I37" s="37"/>
       <c r="J37" s="37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
@@ -7165,12 +7165,12 @@
         <v>46</v>
       </c>
       <c r="P37" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="37"/>
       <c r="R37" s="39"/>
       <c r="S37" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7183,14 +7183,14 @@
         <v>47</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
       <c r="J38" s="37" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K38" s="41"/>
       <c r="L38" s="41"/>
@@ -7200,12 +7200,12 @@
         <v>47</v>
       </c>
       <c r="P38" s="37" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q38" s="41"/>
       <c r="R38" s="49"/>
       <c r="S38" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7215,32 +7215,32 @@
       </c>
       <c r="C39" s="41"/>
       <c r="D39" s="37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
       <c r="H39" s="41"/>
       <c r="I39" s="41"/>
       <c r="J39" s="37" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K39" s="41"/>
       <c r="L39" s="41"/>
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
       <c r="O39" s="41" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P39" s="37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q39" s="41"/>
       <c r="R39" s="49"/>
       <c r="S39" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7250,32 +7250,32 @@
       </c>
       <c r="C40" s="41"/>
       <c r="D40" s="37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
       <c r="J40" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K40" s="41"/>
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
       <c r="O40" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P40" s="37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q40" s="41"/>
       <c r="R40" s="49"/>
       <c r="S40" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7285,32 +7285,32 @@
       </c>
       <c r="C41" s="41"/>
       <c r="D41" s="37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
       <c r="I41" s="37"/>
       <c r="J41" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K41" s="42"/>
       <c r="L41" s="38"/>
       <c r="M41" s="42"/>
       <c r="N41" s="42"/>
       <c r="O41" s="41" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P41" s="37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q41" s="37"/>
       <c r="R41" s="39"/>
       <c r="S41" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7320,32 +7320,32 @@
       </c>
       <c r="C42" s="41"/>
       <c r="D42" s="37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
       <c r="J42" s="37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K42" s="38"/>
       <c r="L42" s="37"/>
       <c r="M42" s="41"/>
       <c r="N42" s="41"/>
       <c r="O42" s="41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P42" s="37" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q42" s="37"/>
       <c r="R42" s="39"/>
       <c r="S42" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7355,32 +7355,32 @@
       </c>
       <c r="C43" s="41"/>
       <c r="D43" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
       <c r="I43" s="37"/>
       <c r="J43" s="37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K43" s="37"/>
       <c r="L43" s="37"/>
       <c r="M43" s="41"/>
       <c r="N43" s="41"/>
       <c r="O43" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P43" s="37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q43" s="37"/>
       <c r="R43" s="39"/>
       <c r="S43" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7390,10 +7390,10 @@
       </c>
       <c r="C44" s="37"/>
       <c r="D44" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -7405,15 +7405,15 @@
       <c r="M44" s="41"/>
       <c r="N44" s="41"/>
       <c r="O44" s="41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P44" s="42" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q44" s="37"/>
       <c r="R44" s="39"/>
       <c r="S44" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3"/>
@@ -7511,107 +7511,107 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>338</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>340</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>49</v>
@@ -7619,17 +7619,17 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>339</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>341</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>49</v>
@@ -7637,17 +7637,17 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>49</v>
@@ -7655,17 +7655,17 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>49</v>
@@ -7673,17 +7673,17 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>49</v>
@@ -7691,17 +7691,17 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>321</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>323</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>49</v>
@@ -7709,17 +7709,17 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>322</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>324</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>49</v>
@@ -7821,101 +7821,101 @@
     </row>
     <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="D2" s="69" t="s">
-        <v>274</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>272</v>
-      </c>
       <c r="G2" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" s="54" t="s">
         <v>271</v>
-      </c>
-      <c r="H2" s="54" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
       <c r="F3" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="54" t="s">
         <v>276</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="54" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
       <c r="F5" s="63" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G5" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="H5" s="54" t="s">
         <v>271</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>56</v>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="D6" s="69"/>
       <c r="E6" s="70" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F6" s="58"/>
       <c r="G6" s="54"/>
@@ -7933,7 +7933,7 @@
     </row>
     <row r="7" spans="1:8" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>56</v>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="70" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="54"/>
@@ -7951,61 +7951,61 @@
     </row>
     <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B8" s="57" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="50"/>
       <c r="F8" s="63" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B9" s="57" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="50"/>
       <c r="F9" s="63" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G9" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="H9" s="54" t="s">
         <v>271</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="50" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="54" t="s">
@@ -8015,7 +8015,7 @@
     </row>
     <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>56</v>
@@ -8025,47 +8025,47 @@
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="53" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
       <c r="H11" s="53" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="52" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="53" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
       <c r="H12" s="53" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="53" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
@@ -8073,17 +8073,17 @@
     </row>
     <row r="14" spans="1:8" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="52" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="53" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F14" s="53">
         <v>50</v>
@@ -8093,29 +8093,29 @@
     </row>
     <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="52" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D15" s="67"/>
       <c r="E15" s="53" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F15" s="53"/>
       <c r="G15" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H15" s="53" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="52" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>56</v>
@@ -8127,12 +8127,12 @@
         <v>93</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
       <c r="H16" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">

--- a/tools/example_questionnaire.xlsx
+++ b/tools/example_questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB45DCA9-AAFF-4C78-ABA9-DD5A254759DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07DAE75-B340-4543-BBF2-5A7CC5081419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -3815,6 +3815,72 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3833,24 +3899,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3860,15 +3908,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3885,45 +3924,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5068,57 +5068,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="99"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" ht="42.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="79" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
     </row>
     <row r="3" spans="1:13" ht="42.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>399</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="82" t="s">
@@ -5138,118 +5138,118 @@
       <c r="M4" s="84"/>
     </row>
     <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="79" t="s">
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="79" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="75"/>
     </row>
     <row r="7" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="79" t="s">
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="79" t="s">
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="75"/>
     </row>
     <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="79" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
     </row>
     <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="74" t="s">
+      <c r="B10" s="95"/>
+      <c r="C10" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
     </row>
     <row r="11" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="82" t="s">
@@ -5269,122 +5269,137 @@
       <c r="M11" s="84"/>
     </row>
     <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="79" t="s">
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
     </row>
     <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="79" t="s">
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="79" t="s">
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
     </row>
     <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="79" t="s">
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
     </row>
     <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79" t="s">
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="75"/>
     </row>
     <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74" t="s">
+      <c r="B17" s="95"/>
+      <c r="C17" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:M12"/>
     <mergeCell ref="G8:M8"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="A1:M1"/>
@@ -5400,21 +5415,6 @@
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="G6:M6"/>
     <mergeCell ref="G7:M7"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5953,9 +5953,7 @@
       <c r="H6" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="37" t="s">
-        <v>40</v>
-      </c>
+      <c r="I6" s="37"/>
       <c r="J6" s="29" t="s">
         <v>156</v>
       </c>
@@ -6590,8 +6588,8 @@
       <c r="H22" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="36">
-        <v>5</v>
+      <c r="I22" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>397</v>
@@ -7421,7 +7419,7 @@
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="C21 C15 B33:B42 B3:B26 B43:B44 B28:B29 B27:C27 I11 I6 B30:B32" numberStoredAsText="1"/>
+    <ignoredError sqref="C21 C15 B33:B42 B3:B26 B43:B44 B28:B29 B27:C27 I11 B30:B32 I22" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
@@ -7777,8 +7775,8 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8086,7 +8084,7 @@
         <v>301</v>
       </c>
       <c r="F14" s="53">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>

--- a/tools/example_questionnaire.xlsx
+++ b/tools/example_questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07DAE75-B340-4543-BBF2-5A7CC5081419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84584E6-535A-4A9B-ADFC-DABC82F4F16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="-13695" windowWidth="21240" windowHeight="12750" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -2058,9 +2058,6 @@
     <t>mandatory</t>
   </si>
   <si>
-    <t>nice to have</t>
-  </si>
-  <si>
     <t>recommended</t>
   </si>
   <si>
@@ -3132,6 +3129,9 @@
       <t xml:space="preserve"> a Framework! We call them questionnaires because we use these frameworks like traditional questionnaires.
 All elements of "example_framework.xlsx" (fields, columns, sheets, …) can be added to a questionnaire.</t>
     </r>
+  </si>
+  <si>
+    <t>nice_to_have</t>
   </si>
 </sst>
 </file>
@@ -5069,7 +5069,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="77"/>
       <c r="C1" s="77"/>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="2" spans="1:13" ht="42.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="79" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
@@ -5103,11 +5103,11 @@
     </row>
     <row r="3" spans="1:13" ht="42.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="85"/>
       <c r="C3" s="86" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D3" s="86"/>
       <c r="E3" s="86"/>
@@ -5450,7 +5450,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5474,7 +5474,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5482,7 +5482,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -5490,7 +5490,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5498,7 +5498,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5522,7 +5522,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -5530,7 +5530,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5580,7 +5580,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5588,7 +5588,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5596,7 +5596,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5604,7 +5604,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -5612,7 +5612,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5633,18 +5633,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="71" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" s="72" t="s">
         <v>363</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5652,7 +5652,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -5660,7 +5660,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5745,10 +5745,10 @@
         <v>63</v>
       </c>
       <c r="M1" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="35" t="s">
         <v>94</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>95</v>
       </c>
       <c r="O1" s="14" t="s">
         <v>14</v>
@@ -5763,7 +5763,7 @@
         <v>28</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -5772,16 +5772,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
@@ -5792,13 +5792,13 @@
       <c r="M2" s="37"/>
       <c r="N2" s="37"/>
       <c r="O2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" t="s">
         <v>127</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>128</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>129</v>
       </c>
       <c r="R2" s="39"/>
       <c r="S2" s="62"/>
@@ -5809,10 +5809,10 @@
         <v>40</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -5825,7 +5825,7 @@
       <c r="M3" s="37"/>
       <c r="N3" s="37"/>
       <c r="O3" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
@@ -5840,49 +5840,49 @@
         <v>41</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="G4" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="J4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="J4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>226</v>
-      </c>
       <c r="L4" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="M4" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="N4" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="N4" s="48" t="s">
-        <v>286</v>
-      </c>
       <c r="O4" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" t="s">
         <v>133</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>134</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>135</v>
       </c>
-      <c r="R4" t="s">
-        <v>136</v>
-      </c>
       <c r="S4" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -5893,45 +5893,45 @@
         <v>41</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
       <c r="J5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M5" s="37"/>
       <c r="N5" s="37"/>
       <c r="O5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" t="s">
         <v>137</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>138</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>139</v>
       </c>
       <c r="R5" s="39"/>
       <c r="S5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5942,10 +5942,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
@@ -5955,28 +5955,28 @@
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K6" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="L6" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="M6" s="68" t="s">
         <v>331</v>
       </c>
-      <c r="M6" s="68" t="s">
-        <v>332</v>
-      </c>
       <c r="N6" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O6" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="39"/>
       <c r="S6" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -5987,10 +5987,10 @@
         <v>41</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
@@ -5998,14 +5998,14 @@
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K7" s="37"/>
       <c r="L7" s="37"/>
       <c r="M7" s="37"/>
       <c r="N7" s="37"/>
       <c r="O7" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="37"/>
@@ -6020,27 +6020,27 @@
         <v>41</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
       <c r="J8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
       <c r="O8" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="str">
         <f>_xlfn.TRANSLATE(Tableau1[[#This Row],[description]],"en","fr")</f>
@@ -6056,16 +6056,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="37"/>
@@ -6076,13 +6076,13 @@
       <c r="M9" s="37"/>
       <c r="N9" s="37"/>
       <c r="O9" t="s">
+        <v>139</v>
+      </c>
+      <c r="P9" t="s">
         <v>140</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>141</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>142</v>
       </c>
       <c r="R9" s="37"/>
       <c r="S9" s="7"/>
@@ -6095,49 +6095,49 @@
         <v>40</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>86</v>
+        <v>399</v>
       </c>
       <c r="I10" s="36">
         <v>5</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M10" s="37"/>
       <c r="N10" s="37"/>
       <c r="O10" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" t="s">
         <v>143</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>144</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>145</v>
       </c>
       <c r="R10" s="39"/>
       <c r="S10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6148,47 +6148,47 @@
         <v>40</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="37" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M11" s="37"/>
       <c r="N11" s="37"/>
       <c r="O11" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11" t="s">
         <v>161</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>162</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>163</v>
       </c>
       <c r="R11" s="39"/>
       <c r="S11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6199,10 +6199,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
@@ -6210,24 +6210,24 @@
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
       <c r="J12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M12" s="37"/>
       <c r="N12" s="37"/>
       <c r="O12" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="37"/>
       <c r="R12" s="39"/>
       <c r="S12" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6238,35 +6238,35 @@
         <v>40</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
       <c r="O13" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="37"/>
       <c r="R13" s="39"/>
       <c r="S13" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6277,35 +6277,35 @@
         <v>40</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
       <c r="I14" s="37"/>
       <c r="J14" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
       <c r="N14" s="37"/>
       <c r="O14" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="37"/>
       <c r="R14" s="39"/>
       <c r="S14" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6317,7 +6317,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
@@ -6330,13 +6330,13 @@
       <c r="M15" s="37"/>
       <c r="N15" s="37"/>
       <c r="O15" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="37"/>
       <c r="R15" s="39"/>
       <c r="S15" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6347,37 +6347,37 @@
         <v>40</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
       <c r="H16" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I16" s="37"/>
       <c r="J16" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="37"/>
       <c r="R16" s="39"/>
       <c r="S16" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6388,37 +6388,37 @@
         <v>40</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I17" s="36"/>
       <c r="J17" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q17" s="37"/>
       <c r="R17" s="37"/>
       <c r="S17" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6429,10 +6429,10 @@
         <v>40</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -6440,24 +6440,24 @@
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="37"/>
       <c r="R18" s="37"/>
       <c r="S18" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6468,10 +6468,10 @@
         <v>40</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
@@ -6479,24 +6479,24 @@
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
       <c r="J19" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M19" s="37"/>
       <c r="N19" s="37"/>
       <c r="O19" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="37"/>
       <c r="R19" s="39"/>
       <c r="S19" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6507,10 +6507,10 @@
         <v>40</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
@@ -6518,24 +6518,24 @@
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="37"/>
       <c r="R20" s="39"/>
       <c r="S20" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6547,7 +6547,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
@@ -6560,13 +6560,13 @@
       <c r="M21" s="37"/>
       <c r="N21" s="37"/>
       <c r="O21" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="37"/>
       <c r="R21" s="39"/>
       <c r="S21" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6577,39 +6577,39 @@
         <v>40</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I22" s="36" t="s">
         <v>40</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K22" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="L22" s="16" t="s">
         <v>359</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>360</v>
       </c>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="37"/>
       <c r="R22" s="39"/>
       <c r="S22" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6620,37 +6620,37 @@
         <v>40</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I23" s="36"/>
       <c r="J23" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q23" s="37"/>
       <c r="R23" s="37"/>
       <c r="S23" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6661,35 +6661,35 @@
         <v>40</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
       <c r="H24" s="36"/>
       <c r="I24" s="36"/>
       <c r="J24" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q24" s="37"/>
       <c r="R24" s="37"/>
       <c r="S24" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6700,37 +6700,37 @@
         <v>40</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37" t="s">
-        <v>86</v>
+        <v>399</v>
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
       <c r="O25" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q25" s="37"/>
       <c r="R25" s="39"/>
       <c r="S25" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6741,35 +6741,35 @@
         <v>40</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
       <c r="O26" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q26" s="37"/>
       <c r="R26" s="39"/>
       <c r="S26" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6778,10 +6778,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
@@ -6794,13 +6794,13 @@
       <c r="M27" s="23"/>
       <c r="N27" s="23"/>
       <c r="O27" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="37"/>
       <c r="R27" s="39"/>
       <c r="S27" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6811,10 +6811,10 @@
         <v>40</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
@@ -6822,24 +6822,24 @@
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K28" s="38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L28" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
       <c r="O28" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="37"/>
       <c r="R28" s="39"/>
       <c r="S28" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6850,37 +6850,37 @@
         <v>40</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37" t="s">
-        <v>86</v>
+        <v>399</v>
       </c>
       <c r="I29" s="36"/>
       <c r="J29" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K29" s="38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
       <c r="O29" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="37"/>
       <c r="R29" s="39"/>
       <c r="S29" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6891,23 +6891,23 @@
         <v>40</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D30" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="37" t="s">
         <v>218</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>219</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="36"/>
       <c r="I30" s="36"/>
       <c r="J30" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L30" s="16" t="s">
         <v>55</v>
@@ -6915,15 +6915,15 @@
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
       <c r="O30" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P30" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q30" s="37"/>
       <c r="R30" s="39"/>
       <c r="S30" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6934,10 +6934,10 @@
         <v>40</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
@@ -6945,10 +6945,10 @@
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
       <c r="J31" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L31" s="16" t="s">
         <v>58</v>
@@ -6960,7 +6960,7 @@
       <c r="Q31" s="37"/>
       <c r="R31" s="39"/>
       <c r="S31" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6971,10 +6971,10 @@
         <v>40</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
@@ -6982,10 +6982,10 @@
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
       <c r="J32" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>60</v>
@@ -6997,7 +6997,7 @@
       <c r="Q32" s="37"/>
       <c r="R32" s="39"/>
       <c r="S32" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7006,10 +7006,10 @@
         <v>4</v>
       </c>
       <c r="C33" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="37" t="s">
         <v>159</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>160</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
@@ -7022,13 +7022,13 @@
       <c r="M33" s="37"/>
       <c r="N33" s="37"/>
       <c r="O33" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="37"/>
       <c r="R33" s="39"/>
       <c r="S33" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7041,14 +7041,14 @@
         <v>43</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
       <c r="J34" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
@@ -7058,12 +7058,12 @@
         <v>43</v>
       </c>
       <c r="P34" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q34" s="37"/>
       <c r="R34" s="39"/>
       <c r="S34" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7076,14 +7076,14 @@
         <v>44</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
@@ -7093,12 +7093,12 @@
         <v>44</v>
       </c>
       <c r="P35" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q35" s="37"/>
       <c r="R35" s="39"/>
       <c r="S35" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7111,14 +7111,14 @@
         <v>45</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K36" s="37"/>
       <c r="L36" s="37"/>
@@ -7128,12 +7128,12 @@
         <v>45</v>
       </c>
       <c r="P36" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="37"/>
       <c r="R36" s="39"/>
       <c r="S36" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7146,14 +7146,14 @@
         <v>46</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
       <c r="I37" s="37"/>
       <c r="J37" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
@@ -7163,12 +7163,12 @@
         <v>46</v>
       </c>
       <c r="P37" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="37"/>
       <c r="R37" s="39"/>
       <c r="S37" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7181,14 +7181,14 @@
         <v>47</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
       <c r="J38" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K38" s="41"/>
       <c r="L38" s="41"/>
@@ -7198,12 +7198,12 @@
         <v>47</v>
       </c>
       <c r="P38" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q38" s="41"/>
       <c r="R38" s="49"/>
       <c r="S38" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7213,32 +7213,32 @@
       </c>
       <c r="C39" s="41"/>
       <c r="D39" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
       <c r="H39" s="41"/>
       <c r="I39" s="41"/>
       <c r="J39" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K39" s="41"/>
       <c r="L39" s="41"/>
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
       <c r="O39" s="41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P39" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q39" s="41"/>
       <c r="R39" s="49"/>
       <c r="S39" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7248,32 +7248,32 @@
       </c>
       <c r="C40" s="41"/>
       <c r="D40" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
       <c r="J40" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K40" s="41"/>
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
       <c r="O40" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P40" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q40" s="41"/>
       <c r="R40" s="49"/>
       <c r="S40" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7283,32 +7283,32 @@
       </c>
       <c r="C41" s="41"/>
       <c r="D41" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
       <c r="I41" s="37"/>
       <c r="J41" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K41" s="42"/>
       <c r="L41" s="38"/>
       <c r="M41" s="42"/>
       <c r="N41" s="42"/>
       <c r="O41" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P41" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q41" s="37"/>
       <c r="R41" s="39"/>
       <c r="S41" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7318,32 +7318,32 @@
       </c>
       <c r="C42" s="41"/>
       <c r="D42" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
       <c r="J42" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K42" s="38"/>
       <c r="L42" s="37"/>
       <c r="M42" s="41"/>
       <c r="N42" s="41"/>
       <c r="O42" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P42" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q42" s="37"/>
       <c r="R42" s="39"/>
       <c r="S42" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7353,32 +7353,32 @@
       </c>
       <c r="C43" s="41"/>
       <c r="D43" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
       <c r="I43" s="37"/>
       <c r="J43" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K43" s="37"/>
       <c r="L43" s="37"/>
       <c r="M43" s="41"/>
       <c r="N43" s="41"/>
       <c r="O43" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P43" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q43" s="37"/>
       <c r="R43" s="39"/>
       <c r="S43" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7388,10 +7388,10 @@
       </c>
       <c r="C44" s="37"/>
       <c r="D44" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -7403,15 +7403,15 @@
       <c r="M44" s="41"/>
       <c r="N44" s="41"/>
       <c r="O44" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P44" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q44" s="37"/>
       <c r="R44" s="39"/>
       <c r="S44" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3"/>
@@ -7509,107 +7509,107 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>311</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>312</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>49</v>
@@ -7617,17 +7617,17 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>49</v>
@@ -7635,17 +7635,17 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>49</v>
@@ -7653,17 +7653,17 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>49</v>
@@ -7671,17 +7671,17 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>49</v>
@@ -7689,17 +7689,17 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>49</v>
@@ -7707,17 +7707,17 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>49</v>
@@ -7805,115 +7805,115 @@
         <v>9</v>
       </c>
       <c r="E1" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>90</v>
-      </c>
       <c r="H1" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="D2" s="69" t="s">
-        <v>272</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" s="54" t="s">
+      <c r="H2" s="54" t="s">
         <v>270</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="H2" s="54" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
       <c r="F3" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="H3" s="54" t="s">
         <v>275</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="69" t="s">
         <v>278</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>279</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
       <c r="F5" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="H5" s="54" t="s">
         <v>270</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>56</v>
@@ -7923,7 +7923,7 @@
       </c>
       <c r="D6" s="69"/>
       <c r="E6" s="70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F6" s="58"/>
       <c r="G6" s="54"/>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="7" spans="1:8" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>56</v>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="70" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="54"/>
@@ -7949,71 +7949,71 @@
     </row>
     <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B8" s="57" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="50"/>
       <c r="F8" s="63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B9" s="57" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="50"/>
       <c r="F9" s="63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="50" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="52" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>56</v>
@@ -8023,47 +8023,47 @@
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
       <c r="H11" s="53" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="53" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
       <c r="H12" s="53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
@@ -8071,17 +8071,17 @@
     </row>
     <row r="14" spans="1:8" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F14" s="53">
         <v>25</v>
@@ -8091,29 +8091,29 @@
     </row>
     <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D15" s="67"/>
       <c r="E15" s="53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F15" s="53"/>
       <c r="G15" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H15" s="53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>56</v>
@@ -8122,15 +8122,15 @@
         <v>57</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
       <c r="H16" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">

--- a/tools/example_questionnaire.xlsx
+++ b/tools/example_questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84584E6-535A-4A9B-ADFC-DABC82F4F16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5973631A-699D-4DEE-A82E-6A4FBE39B650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="-13695" windowWidth="21240" windowHeight="12750" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -1604,12 +1604,62 @@
         </r>
       </text>
     </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{D1C60A8C-A5BC-45E5-AC9A-2E4342F7FDC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.: About question_choices :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Each choice is separated by line breaks. To make a choice written on several lines, start the next line with a "|".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A2658C5E-23ED-4120-860C-5859E46B9F67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.: About description :.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Usable if question_type is "unique_choice" or "multiple_choice".
+Each description is separated by line breaks. To make a description written on several lines, start the next line with a "|".
+Set "/" to indicate that there is no comment for a specific choice.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="415">
   <si>
     <t>type</t>
   </si>
@@ -3132,6 +3182,75 @@
   </si>
   <si>
     <t>nice_to_have</t>
+  </si>
+  <si>
+    <t>question_choices[fr]</t>
+  </si>
+  <si>
+    <t>Oui, documenté et appliqué.
+Oui, mais pas formalisé.
+Non, pas de politique spécifique.</t>
+  </si>
+  <si>
+    <t>Indique que la politique d’accès est documentée et implémentée.
+/
+/</t>
+  </si>
+  <si>
+    <t>Oui, un examen annuel est effectué.
+Non, la politique n’est pas révisée régulièrement.</t>
+  </si>
+  <si>
+    <t>Authentification multifacteur (MFA)
+Contrôle d’accès basé sur les rôles (RBAC)
+Pas de mesures spécifiques</t>
+  </si>
+  <si>
+    <t>Améliore considérablement la sécurité d’accès.
+/
+/</t>
+  </si>
+  <si>
+    <t>Oui, tous les employés reçoivent régulièrement des formations.
+Seulement certains employés.
+Aucune formation n’est prévue.</t>
+  </si>
+  <si>
+    <t>Oui
+Non
+N/A</t>
+  </si>
+  <si>
+    <t>SIEM (Gestion des informations et des événements de sécurité)
+Surveillance manuelle occasionnelle
+Aucune supervision en place</t>
+  </si>
+  <si>
+    <t>Oui, sauvegardes quotidiennes et testées.
+Oui, mais pas testé.
+Non, il n’y a pas de sauvegarde formelle.</t>
+  </si>
+  <si>
+    <t>Oui
+Oui!
+OUI!!!</t>
+  </si>
+  <si>
+    <t>Non
+Oui
+N/A</t>
+  </si>
+  <si>
+    <t>Non
+Oui</t>
+  </si>
+  <si>
+    <t>Oui
+D’ACCORD!
+Bien sûr</t>
+  </si>
+  <si>
+    <t>Description pour chaque choix</t>
   </si>
 </sst>
 </file>
@@ -3363,18 +3482,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3436,6 +3543,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3615,16 +3734,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3636,28 +3755,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3666,19 +3785,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3690,10 +3809,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3701,7 +3820,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3711,7 +3830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3739,13 +3858,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3755,7 +3874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3813,8 +3932,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3824,79 +3946,88 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3908,29 +4039,68 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="48">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -4708,60 +4878,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}" name="Tableau1" displayName="Tableau1" ref="A1:S44" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}" name="Tableau1" displayName="Tableau1" ref="A1:S44" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="A1:S44" xr:uid="{549B97EC-A4EC-467D-95D4-C91A5E59F559}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{D7929412-2C04-48B2-B421-6EC19B1F374C}" name="assessable" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{BAC0F5CA-29D7-460A-BD72-3F9E24C9732F}" name="depth" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{92C5BE2B-42CA-458E-8D3C-CC37002D48BD}" name="ref_id" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{9F7C5816-5FCC-476D-B6FA-AE433ADEABCC}" name="name" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{2650FBAE-CAA9-4751-AB1F-D901BDE6D752}" name="description" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="34"/>
-    <tableColumn id="19" xr3:uid="{DFBF3465-BE6B-4017-8F87-57A82780A75B}" name="importance" dataDxfId="33"/>
-    <tableColumn id="18" xr3:uid="{12A7028D-E894-47CA-AEF9-9E602B1E4657}" name="weight" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="29"/>
-    <tableColumn id="17" xr3:uid="{DF10B870-B9C4-4D6A-8C84-F0105D4909E5}" name="depends_on" dataDxfId="28"/>
-    <tableColumn id="20" xr3:uid="{4DFC0890-3949-485D-8686-867538D659D0}" name="condition" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{D92464D6-5A4E-46A6-B30C-5054FBC689EF}" name="name[fr]" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{582EF74A-B398-41A0-ACCF-D0452C1A56EF}" name="description[fr]" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{EA0E2718-3825-4A77-B686-8C594E64AC01}" name="annotation[fr]" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{CB66FA06-DCF3-44C6-A079-7B12A457972F}" name="typical_evidence[fr]" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{60FCF147-70C3-4F03-8B4C-7E658780A42E}" name="questions[fr]" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{D7929412-2C04-48B2-B421-6EC19B1F374C}" name="assessable" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{BAC0F5CA-29D7-460A-BD72-3F9E24C9732F}" name="depth" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{92C5BE2B-42CA-458E-8D3C-CC37002D48BD}" name="ref_id" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{9F7C5816-5FCC-476D-B6FA-AE433ADEABCC}" name="name" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{2650FBAE-CAA9-4751-AB1F-D901BDE6D752}" name="description" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{552D82DF-7C98-4797-9A2D-D4FDA52D98AF}" name="annotation" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{E61773D4-D778-4312-A49F-8A5758A995E8}" name="typical_evidence" dataDxfId="36"/>
+    <tableColumn id="19" xr3:uid="{DFBF3465-BE6B-4017-8F87-57A82780A75B}" name="importance" dataDxfId="35"/>
+    <tableColumn id="18" xr3:uid="{12A7028D-E894-47CA-AEF9-9E602B1E4657}" name="weight" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{41549C1C-81F1-4DC9-AF3E-D66557AB55EA}" name="implementation_groups" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{AFF985E6-291A-441C-8DEF-8F4448E20722}" name="questions" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{22C6C123-59A8-4006-974A-AEC9BDF7B9C5}" name="answer" dataDxfId="31"/>
+    <tableColumn id="17" xr3:uid="{DF10B870-B9C4-4D6A-8C84-F0105D4909E5}" name="depends_on" dataDxfId="30"/>
+    <tableColumn id="20" xr3:uid="{4DFC0890-3949-485D-8686-867538D659D0}" name="condition" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{D92464D6-5A4E-46A6-B30C-5054FBC689EF}" name="name[fr]" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{582EF74A-B398-41A0-ACCF-D0452C1A56EF}" name="description[fr]" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{EA0E2718-3825-4A77-B686-8C594E64AC01}" name="annotation[fr]" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{CB66FA06-DCF3-44C6-A079-7B12A457972F}" name="typical_evidence[fr]" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{60FCF147-70C3-4F03-8B4C-7E658780A42E}" name="questions[fr]" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}" name="Tableau2" displayName="Tableau2" ref="A1:F14" totalsRowShown="0" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}" name="Tableau2" displayName="Tableau2" ref="A1:F14" totalsRowShown="0" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A1:F14" xr:uid="{095154CE-6DE0-439C-B5AB-1118C37DCAF4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BB7E1ECB-4B2B-4222-B69C-FDF7FCF7F451}" name="ref_id" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{AA129DE3-6969-4BE8-8FD1-B74529AF31A8}" name="name" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{7980BF69-F795-4B15-9518-5B07FE2675D7}" name="description" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{924732DF-B0AD-42F7-8C31-80F3FDB545EE}" name="default_selected" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{245E3F68-8E07-4115-ADB2-6D2D1DB60F36}" name="name[fr]" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{7C50CF1F-76A2-4CDB-B985-67AE9549E305}" name="description[fr]" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{BB7E1ECB-4B2B-4222-B69C-FDF7FCF7F451}" name="ref_id" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{AA129DE3-6969-4BE8-8FD1-B74529AF31A8}" name="name" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{7980BF69-F795-4B15-9518-5B07FE2675D7}" name="description" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{924732DF-B0AD-42F7-8C31-80F3FDB545EE}" name="default_selected" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{245E3F68-8E07-4115-ADB2-6D2D1DB60F36}" name="name[fr]" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{7C50CF1F-76A2-4CDB-B985-67AE9549E305}" name="description[fr]" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}" name="Tableau4" displayName="Tableau4" ref="A1:H19" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H19" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{162F889E-4877-4ACE-958A-41755715A824}" name="id" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{8EAFDB25-CF89-4029-A9FB-4244A3FEAF92}" name="question_type" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{6047ECFC-47B1-4CF1-856C-62F6C1E20455}" name="question_choices" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{70F917A4-A4E5-42C0-BA3B-5A06AF583DC2}" name="description" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{A4A01147-E50D-4259-A705-6F2FDEB19F26}" name="select_implementation_groups" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{F9FB2847-10A0-4A69-ADCC-E8F7C6DF7416}" name="add_score" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{FFF5444F-8BD1-4B79-95F0-B652925F370E}" name="compute_result" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{46F6EBDF-F10D-485F-B69E-C9B51DF11F40}" name="color" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}" name="Tableau4" displayName="Tableau4" ref="A1:J19" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J19" xr:uid="{3429E788-61C1-4DE4-9CF3-671C9CE643FD}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{162F889E-4877-4ACE-958A-41755715A824}" name="id" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{8EAFDB25-CF89-4029-A9FB-4244A3FEAF92}" name="question_type" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6047ECFC-47B1-4CF1-856C-62F6C1E20455}" name="question_choices" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{70F917A4-A4E5-42C0-BA3B-5A06AF583DC2}" name="description" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{A4A01147-E50D-4259-A705-6F2FDEB19F26}" name="select_implementation_groups" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{F9FB2847-10A0-4A69-ADCC-E8F7C6DF7416}" name="add_score" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{FFF5444F-8BD1-4B79-95F0-B652925F370E}" name="compute_result" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{46F6EBDF-F10D-485F-B69E-C9B51DF11F40}" name="color" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{182B5B6F-C4D6-4970-BCD1-320CEAFE9500}" name="question_choices[fr]" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{45DBB3CF-CBC3-4134-9789-E74F5D4223B5}" name="description[fr]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5068,319 +5240,319 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:13" ht="42.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
     </row>
     <row r="3" spans="1:13" ht="42.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87" t="s">
         <v>398</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="85"/>
     </row>
     <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="73" t="s">
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="73" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="73" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="76"/>
     </row>
     <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="73" t="s">
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="76"/>
     </row>
     <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="73" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="76"/>
     </row>
     <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="96" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
     </row>
     <row r="11" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="84"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="85"/>
     </row>
     <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="73" t="s">
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
     </row>
     <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="73" t="s">
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="76"/>
     </row>
     <row r="14" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="73" t="s">
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="73" t="s">
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="76"/>
     </row>
     <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="73" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="76"/>
     </row>
     <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -7772,11 +7944,11 @@
   <sheetPr codeName="Feuil8">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7789,9 +7961,11 @@
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="56" customWidth="1"/>
+    <col min="10" max="10" width="42.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>52</v>
       </c>
@@ -7816,8 +7990,14 @@
       <c r="H1" s="51" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="73" t="s">
+        <v>400</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>280</v>
       </c>
@@ -7842,8 +8022,14 @@
       <c r="H2" s="54" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I2" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>281</v>
       </c>
@@ -7864,8 +8050,14 @@
       <c r="H3" s="54" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I3" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>282</v>
       </c>
@@ -7888,8 +8080,14 @@
       <c r="H4" s="54" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I4" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>393</v>
       </c>
@@ -7910,8 +8108,14 @@
       <c r="H5" s="54" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I5" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>333</v>
       </c>
@@ -7928,8 +8132,14 @@
       <c r="F6" s="58"/>
       <c r="G6" s="54"/>
       <c r="H6" s="54"/>
-    </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I6" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>334</v>
       </c>
@@ -7946,8 +8156,14 @@
       <c r="F7" s="58"/>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
-    </row>
-    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I7" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>287</v>
       </c>
@@ -7968,8 +8184,14 @@
       <c r="H8" s="54" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I8" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
         <v>288</v>
       </c>
@@ -7990,8 +8212,14 @@
       <c r="H9" s="54" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I9" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>293</v>
       </c>
@@ -8010,8 +8238,14 @@
         <v>90</v>
       </c>
       <c r="H10" s="54"/>
-    </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I10" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="52" t="s">
         <v>349</v>
       </c>
@@ -8030,8 +8264,14 @@
       <c r="H11" s="53" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I11" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="52" t="s">
         <v>350</v>
       </c>
@@ -8050,8 +8290,14 @@
       <c r="H12" s="53" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I12" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
         <v>352</v>
       </c>
@@ -8068,8 +8314,14 @@
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
       <c r="H13" s="53"/>
-    </row>
-    <row r="14" spans="1:8" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I13" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="52" t="s">
         <v>359</v>
       </c>
@@ -8088,8 +8340,14 @@
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
-    </row>
-    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I14" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="52" t="s">
         <v>316</v>
       </c>
@@ -8110,8 +8368,14 @@
       <c r="H15" s="53" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I15" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="52" t="s">
         <v>317</v>
       </c>
@@ -8132,8 +8396,14 @@
       <c r="H16" s="53" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I16" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="52" t="s">
         <v>55</v>
       </c>
@@ -8148,8 +8418,14 @@
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="52" t="s">
         <v>58</v>
       </c>
@@ -8162,8 +8438,14 @@
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
       <c r="H18" s="55"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="56" t="s">
         <v>60</v>
       </c>
@@ -8176,6 +8458,12 @@
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
+      <c r="I19" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>

--- a/tools/example_questionnaire.xlsx
+++ b/tools/example_questionnaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5973631A-699D-4DEE-A82E-6A4FBE39B650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680A424F-0281-4BCF-81C7-3AEE7D1D4698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1659,7 +1659,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="416">
   <si>
     <t>type</t>
   </si>
@@ -3251,6 +3251,9 @@
   </si>
   <si>
     <t>Description pour chaque choix</t>
+  </si>
+  <si>
+    <t>Informations sur le gouvernement 5</t>
   </si>
 </sst>
 </file>
@@ -3937,6 +3940,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3946,6 +3967,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3964,15 +4030,6 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3991,61 +4048,7 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5230,7 +5233,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C3" sqref="C3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5240,57 +5243,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13" ht="42.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="101" t="s">
         <v>397</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
     </row>
     <row r="3" spans="1:13" ht="42.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87" t="s">
+      <c r="B3" s="104"/>
+      <c r="C3" s="105" t="s">
         <v>398</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
     </row>
     <row r="4" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="83" t="s">
@@ -5310,118 +5313,118 @@
       <c r="M4" s="85"/>
     </row>
     <row r="5" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="74" t="s">
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="76"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="82"/>
     </row>
     <row r="6" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="74" t="s">
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="76"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="82"/>
     </row>
     <row r="7" spans="1:13" ht="19.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="74" t="s">
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="76"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="82"/>
     </row>
     <row r="8" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="74" t="s">
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="82"/>
     </row>
     <row r="9" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="74" t="s">
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="82"/>
     </row>
     <row r="10" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
     </row>
     <row r="11" spans="1:13" ht="34.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="83" t="s">
@@ -5441,122 +5444,137 @@
       <c r="M11" s="85"/>
     </row>
     <row r="12" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="74" t="s">
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="76"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="82"/>
     </row>
     <row r="13" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="74" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="76"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="82"/>
     </row>
     <row r="14" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="74" t="s">
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="76"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="82"/>
     </row>
     <row r="15" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="74" t="s">
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="82"/>
     </row>
     <row r="16" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="74" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="76"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="82"/>
     </row>
     <row r="17" spans="1:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="97" t="s">
+      <c r="B17" s="74"/>
+      <c r="C17" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="G7:M7"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:M17"/>
     <mergeCell ref="A16:F16"/>
@@ -5572,21 +5590,6 @@
     <mergeCell ref="G14:M14"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="G12:M12"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="G7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5853,7 +5856,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6214,9 +6217,8 @@
       <c r="O8" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="P8" s="7" t="str">
-        <f>_xlfn.TRANSLATE(Tableau1[[#This Row],[description]],"en","fr")</f>
-        <v>Informations sur la gouvernance 5</v>
+      <c r="P8" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="Q8" s="37"/>
       <c r="R8" s="37"/>
